--- a/biology/Zoologie/Anhuilong/Anhuilong.xlsx
+++ b/biology/Zoologie/Anhuilong/Anhuilong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anhuilong diboensis
-Anhuilong (qui signifie « dragon de l'Anhui ») est un genre éteint de dinosaures Mamenchisauridae connu dans la formation de Hongqin, du Jurassique moyen, dans la province de l'Anhui, en Chine. Le genre contient une seule espèce, Anhuilong diboensis[1].
+Anhuilong (qui signifie « dragon de l'Anhui ») est un genre éteint de dinosaures Mamenchisauridae connu dans la formation de Hongqin, du Jurassique moyen, dans la province de l'Anhui, en Chine. Le genre contient une seule espèce, Anhuilong diboensis.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Découverte et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anhuilong est connu grâce à l'holotype AGB 5822, un membre antérieur composé d'un humérus, d'un cubitus et d'un radius gauches. Il se distingue par la combinaison suivante de caractéristiques : de faibles rapports de la moyenne des plus grandes largeurs de l'extrémité proximale, du milieu de sa longueur et de l'extrémité distale de l'humérus/longueur de l'humérus, longueur totale de l'ulna par rapport à l'humérus et longueur totale du radius par rapport à l'humérus ; le bord latéral de la crête deltopectorale est orienté caudolatéralement, le condyle accessoire latéral sur le bord craniodistal de l'humérus est plus robuste que le condyle médial, et la forme de la section transversale du cubitus à mi-hauteur est elliptique avec le rapport le plus élevé du diamètre transversal au diamètre craniocaudal parmi les Mamenchisauridae[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anhuilong est connu grâce à l'holotype AGB 5822, un membre antérieur composé d'un humérus, d'un cubitus et d'un radius gauches. Il se distingue par la combinaison suivante de caractéristiques : de faibles rapports de la moyenne des plus grandes largeurs de l'extrémité proximale, du milieu de sa longueur et de l'extrémité distale de l'humérus/longueur de l'humérus, longueur totale de l'ulna par rapport à l'humérus et longueur totale du radius par rapport à l'humérus ; le bord latéral de la crête deltopectorale est orienté caudolatéralement, le condyle accessoire latéral sur le bord craniodistal de l'humérus est plus robuste que le condyle médial, et la forme de la section transversale du cubitus à mi-hauteur est elliptique avec le rapport le plus élevé du diamètre transversal au diamètre craniocaudal parmi les Mamenchisauridae.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que le nom soit apparu en ligne pour la première fois en 2018, il n'a été valablement publié qu'en 2020 par Ren et al.. Ils ont considéré Anhuilong comme taxon frère de Huangshanlong, le plus proche parent de ce clade étant Omeisaurus tianfuensis. Les résultats de leur analyse phylogénétique sont présentés dans le cladogramme ci-dessous[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que le nom soit apparu en ligne pour la première fois en 2018, il n'a été valablement publié qu'en 2020 par Ren et al.. Ils ont considéré Anhuilong comme taxon frère de Huangshanlong, le plus proche parent de ce clade étant Omeisaurus tianfuensis. Les résultats de leur analyse phylogénétique sont présentés dans le cladogramme ci-dessous :
 </t>
         </is>
       </c>
